--- a/Code/ApartmentManagement/template/Apartment.xlsx
+++ b/Code/ApartmentManagement/template/Apartment.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SonSB\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SonSB\Desktop\DATN\Code\ApartmentManagement\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -379,7 +379,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
